--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -118,16 +118,16 @@
     <t>dear</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>join</t>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1457,25 +1457,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6982758620689655</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L21">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1483,25 +1483,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1509,25 +1509,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6842105263157895</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1535,25 +1535,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6808510638297872</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L24">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1665,25 +1665,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5853658536585366</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L29">
         <v>192</v>
       </c>
       <c r="M29">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="10:17">
